--- a/Đề cương/Bảng quyết định câu 1, 2.xlsx
+++ b/Đề cương/Bảng quyết định câu 1, 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Y3\KiemThu\KiemThuPhanMem\Đề cương\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B00A52-6DF4-4D5D-92AD-DFF59C1F043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4577C12-F471-440B-A2E5-62B67BEED7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF58516C-C038-4AC3-8DB7-11DC4ABEB499}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EF58516C-C038-4AC3-8DB7-11DC4ABEB499}"/>
   </bookViews>
   <sheets>
     <sheet name="Câu 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="23">
   <si>
     <t>Condition</t>
   </si>
@@ -208,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,11 +219,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,30 +243,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -265,7 +250,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -339,6 +331,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -368,125 +367,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -886,7 +766,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -896,16 +776,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -937,11 +817,6 @@
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -968,11 +843,6 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -999,11 +869,6 @@
       <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1030,23 +895,18 @@
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1066,11 +926,6 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1089,11 +944,6 @@
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1112,11 +962,6 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -1127,25 +972,20 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:XFD5 A7:XFD1048576 A6 I6:XFD6 A1 I1:XFD1">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1 I1:XFD1 A2:XFD5 A6 I6:XFD6 A7:XFD1048576">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1157,34 +997,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E39E2E-8FC9-480F-9AD0-E6F2D5965469}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="45.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1208,16 +1048,16 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1234,7 +1074,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1255,16 +1095,16 @@
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -1281,7 +1121,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1302,7 +1142,7 @@
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1328,7 +1168,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1349,7 +1189,7 @@
       <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1375,23 +1215,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1407,14 +1247,14 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1428,14 +1268,14 @@
         <v>13</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1451,14 +1291,14 @@
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1472,14 +1312,14 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1491,28 +1331,28 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="14" t="s">
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1521,45 +1361,37 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1 A7:G11 I7:I11 A2:G2 B3:G5">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+  <conditionalFormatting sqref="A1 A2:G2 B3:G5 A7:G11 I7:I11">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A11">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:O5">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"T"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"T"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:O5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1570,17 +1402,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21549D25-C90B-4312-93DB-E5E24A00F178}">
   <dimension ref="A4:P15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:P7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="5"/>
-    <col min="3" max="3" width="8.88671875" style="11"/>
-    <col min="4" max="7" width="8.88671875" style="5"/>
-    <col min="8" max="9" width="8.88671875" style="11"/>
-    <col min="10" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="10" width="8.88671875" style="6"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1604,29 +1436,27 @@
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>5</v>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1650,28 +1480,26 @@
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="5" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1696,28 +1524,26 @@
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>12</v>
+      <c r="I6" s="2"/>
+      <c r="J6" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1742,174 +1568,137 @@
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>12</v>
+      <c r="I7" s="2"/>
+      <c r="J7" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="5" t="s">
+      <c r="M7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>5</v>
+      <c r="K10" s="6"/>
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="5" t="s">
+      <c r="F11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="O11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="5" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>6</v>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G3 A4:B7 A16:G1048576 J14:XFD1048576 I12:J13 A8:G9 A14:I15 A10:A13 D10:G13 V10:XFD13 K10:Q13 I4:J7 J1:XFD9">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+  <conditionalFormatting sqref="A1:XFD3 A8:XFD9 A15:XFD1048576 A14:K14 M14:XFD14 J10:Q10 J11:K13 M11:Q13 M4:M7">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+      <formula>"T"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G3 A8:G9 A10:A13 D10:G13 V10:XFD13 J12:K13 A14:J15 A16:G1048576 Q4:XFD7 K1:XFD3 K8:XFD9 K15:XFD1048576 K14 M14:XFD14 L10:Q10 M11:Q13 M4:M7">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B7">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:H7">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+  <conditionalFormatting sqref="A10:A13 D10:G13 V10:XFD13 A4:B7 Q4:XFD7">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"T"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:I7">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:XFD1048576 A10:A13 D10:G13 V10:XFD13 I10:Q13 A1:XFD9">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="J4:P7">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"T"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Đề cương/Bảng quyết định câu 1, 2.xlsx
+++ b/Đề cương/Bảng quyết định câu 1, 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Y3\KiemThu\KiemThuPhanMem\Đề cương\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4577C12-F471-440B-A2E5-62B67BEED7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9C8029-CC60-4ACF-B32E-55D2BA701AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EF58516C-C038-4AC3-8DB7-11DC4ABEB499}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF58516C-C038-4AC3-8DB7-11DC4ABEB499}"/>
   </bookViews>
   <sheets>
     <sheet name="Câu 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="23">
   <si>
     <t>Condition</t>
   </si>
@@ -250,7 +250,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -269,62 +283,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -765,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C79F77-F690-4FFA-8AEF-DBE2B5470831}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -979,13 +937,13 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 I1:XFD1 A2:XFD5 A6 I6:XFD6 A7:XFD1048576">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -995,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E39E2E-8FC9-480F-9AD0-E6F2D5965469}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,7 +965,7 @@
     <col min="2" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1021,12 +979,8 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1049,31 +1003,19 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1098,29 +1040,17 @@
       <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1146,28 +1076,16 @@
         <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
@@ -1193,28 +1111,16 @@
         <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -1228,12 +1134,8 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1248,15 +1150,11 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1269,15 +1167,11 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1292,15 +1186,11 @@
         <v>13</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1313,15 +1203,11 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1334,7 +1220,7 @@
       <c r="H11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="7" t="s">
@@ -1343,54 +1229,42 @@
       <c r="K11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1 A2:G2 B3:G5 A7:G11 I7:I11">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+  <conditionalFormatting sqref="A1 A2:G2 B3:G5 A7:G11">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A11">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:O5">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+  <conditionalFormatting sqref="H2:K5">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"T"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1402,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21549D25-C90B-4312-93DB-E5E24A00F178}">
   <dimension ref="A4:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -1647,31 +1521,7 @@
       <c r="J15" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD3 A8:XFD9 A15:XFD1048576 A14:K14 M14:XFD14 J10:Q10 J11:K13 M11:Q13 M4:M7">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
-      <formula>"T"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G3 A8:G9 A10:A13 D10:G13 V10:XFD13 J12:K13 A14:J15 A16:G1048576 Q4:XFD7 K1:XFD3 K8:XFD9 K15:XFD1048576 K14 M14:XFD14 L10:Q10 M11:Q13 M4:M7">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B7">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
-      <formula>"T"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:A13 D10:G13 V10:XFD13 A4:B7 Q4:XFD7">
+  <conditionalFormatting sqref="A10:A13 D10:G13 V10:XFD13">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -1679,26 +1529,30 @@
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:I7">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="A1:G3 K1:XFD3 A8:G9 K8:XFD9 L10:Q10 A10:A13 D10:G13 V10:XFD13 M11:Q13 J12:K13 K14 M14:XFD14 A14:J15 K15:XFD1048576 A16:G1048576">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD9">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:P7">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="A4:XFD7">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:Q10 J11:K13 M11:Q13 A14:K14 M14:XFD14 A15:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
       <formula>"T"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
